--- a/kakatool/彩生活账号.xlsx
+++ b/kakatool/彩生活账号.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/个人/kakatool/kakatool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/kakatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="460" windowWidth="15220" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="16060" yWindow="2460" windowWidth="18360" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>张其亮</t>
   </si>
@@ -178,6 +178,44 @@
   </si>
   <si>
     <t>wuxuak</t>
+  </si>
+  <si>
+    <t>周易</t>
+    <rPh sb="0" eb="1">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田丰</t>
+    <rPh sb="0" eb="1">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>feng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄伟</t>
+    <rPh sb="0" eb="1">
+      <t>huang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangwei1994</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianfeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.15"/>
@@ -786,6 +824,46 @@
         <v>33</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15014012056</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13934992714</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13379908040</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kakatool/彩生活账号.xlsx
+++ b/kakatool/彩生活账号.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>张其亮</t>
   </si>
@@ -216,6 +216,9 @@
   <si>
     <t>tianfeng</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouyiak</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.15"/>
@@ -834,7 +837,9 @@
       <c r="C19" s="1">
         <v>15014012056</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
